--- a/processed/key.xlsx
+++ b/processed/key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/hmm5708_psu_edu/Documents/Documents/hannah-merseal/MultiSemDis/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FFA0EB2-5260-44F0-9AED-DD7D20D467A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{0FFA0EB2-5260-44F0-9AED-DD7D20D467A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82F5616-63C4-47DF-8641-66EB036AB583}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C4EA3BCE-6D49-4EF2-9E64-8005F4CB4BFC}"/>
+    <workbookView xWindow="3750" yWindow="0" windowWidth="14400" windowHeight="7810" xr2:uid="{C4EA3BCE-6D49-4EF2-9E64-8005F4CB4BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="113">
   <si>
     <t>Chinese</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>spanish1</t>
+  </si>
+  <si>
+    <t>raters</t>
   </si>
 </sst>
 </file>
@@ -734,18 +737,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB332DA0-360C-4C31-ACE1-60C8CBACCF9B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -753,40 +756,43 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -796,24 +802,24 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
@@ -826,8 +832,11 @@
       <c r="M2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -835,20 +844,20 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
@@ -867,8 +876,11 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -876,26 +888,26 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -908,8 +920,11 @@
       <c r="M4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -917,20 +932,20 @@
         <v>13</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>93</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
@@ -949,8 +964,11 @@
       <c r="M5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -958,20 +976,20 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>102</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1008,11 @@
       <c r="M6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -999,29 +1020,29 @@
         <v>13</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
@@ -1031,8 +1052,11 @@
       <c r="M7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1042,24 +1066,24 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
       <c r="J8" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1096,11 @@
       <c r="M8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1083,21 +1110,21 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>94</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
       <c r="I9" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="M9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1122,20 +1152,20 @@
         <v>26</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>104</v>
       </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1184,11 @@
       <c r="M10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1163,29 +1196,29 @@
         <v>28</v>
       </c>
       <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>105</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
       <c r="K11" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1228,11 @@
       <c r="M11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1204,29 +1240,29 @@
         <v>28</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
@@ -1236,8 +1272,11 @@
       <c r="M12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1245,40 +1284,43 @@
         <v>35</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>8</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
       <c r="L13" t="s">
         <v>9</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1286,26 +1328,26 @@
         <v>40</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
       <c r="J14" t="s">
         <v>9</v>
       </c>
@@ -1318,8 +1360,11 @@
       <c r="M14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1327,23 +1372,23 @@
         <v>40</v>
       </c>
       <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>107</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>42</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
       <c r="I15" t="s">
         <v>9</v>
       </c>
@@ -1359,8 +1404,11 @@
       <c r="M15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1368,20 +1416,20 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>96</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
       <c r="I16" t="s">
         <v>9</v>
       </c>
@@ -1397,8 +1445,11 @@
       <c r="M16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1406,26 +1457,26 @@
         <v>59</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
       <c r="J17" t="s">
         <v>9</v>
       </c>
@@ -1438,8 +1489,11 @@
       <c r="M17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1447,26 +1501,26 @@
         <v>59</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
       <c r="J18" t="s">
         <v>9</v>
       </c>
@@ -1479,8 +1533,11 @@
       <c r="M18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1488,40 +1545,43 @@
         <v>61</v>
       </c>
       <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>98</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>63</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>64</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1529,81 +1589,84 @@
         <v>61</v>
       </c>
       <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>32</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>8</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
       <c r="M20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="1">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1611,20 +1674,20 @@
         <v>79</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>100</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>80</v>
       </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
       <c r="H22" t="s">
         <v>9</v>
       </c>
@@ -1643,8 +1706,11 @@
       <c r="M22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1652,26 +1718,26 @@
         <v>79</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>83</v>
       </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
@@ -1684,8 +1750,11 @@
       <c r="M23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1693,23 +1762,23 @@
         <v>85</v>
       </c>
       <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>111</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>86</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
       <c r="I24" t="s">
         <v>9</v>
       </c>
@@ -1725,39 +1794,42 @@
       <c r="M24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
